--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -1992,7 +1992,8 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 12:15</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2043,7 +2044,8 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 12:30</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -3152,14 +3152,10 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -1186,7 +1186,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>Driver, Black Camry (keys in hallway box)</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -1826,7 +1826,8 @@
       <c r="O27" t="inlineStr">
         <is>
           <t>Driver 1/2,
-Optima</t>
+Optima,
+Trainer</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2281,13 +2282,13 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>@ Store,
-After Aurora</t>
+work w/ Nate</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2338,9 +2339,22 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
@@ -2425,11 +2439,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2466,7 +2476,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2509,7 +2519,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2552,7 +2562,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>8200 N SECOND ST</t>
+          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2591,7 +2601,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
+          <t>8200 N SECOND ST</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2642,7 +2652,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2687,7 +2697,11 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2725,21 +2739,9 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2790,15 +2792,19 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2841,12 +2847,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2904,12 +2910,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2960,12 +2966,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3015,12 +3021,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3064,8 +3070,16 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -3178,7 +3192,8 @@
       <c r="S51" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3414,7 +3429,8 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -1726,7 +1726,8 @@
       <c r="K26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1956,12 +1957,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2040,13 +2042,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 12:30</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2121,13 +2122,13 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>@ Store,
-Until 12:00</t>
+Until 12:30</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2200,9 +2201,22 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
@@ -2332,11 +2346,7 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2398,7 +2408,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2433,7 +2443,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2468,7 +2478,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5595 WHEELER RD</t>
+          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2511,7 +2521,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
+          <t>5595 WHEELER RD</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2554,7 +2564,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2595,7 +2605,11 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2633,21 +2647,9 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2686,15 +2688,19 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2729,12 +2735,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2780,12 +2786,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2835,12 +2841,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2898,12 +2904,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2960,8 +2966,16 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -1974,12 +1974,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Nate</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2058,13 +2059,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2139,12 +2139,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2225,7 +2226,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2296,13 +2297,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Missy</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Nate</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3206,8 +3206,7 @@
       <c r="S51" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
-Trainer</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3431,22 +3430,9 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Missy</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Michael</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3499,7 +3485,11 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3528,7 +3518,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3559,7 +3549,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3590,7 +3580,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3621,7 +3611,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3652,7 +3642,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3681,11 +3671,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3711,9 +3697,21 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -3740,19 +3738,15 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3779,12 +3773,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3814,12 +3808,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3849,12 +3843,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -3865,41 +3859,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -1433,7 +1433,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1500,10 +1500,16 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1563,14 +1569,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1645,12 +1649,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver, 1/2
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1720,14 +1726,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
-Trainer</t>
+Camry 3</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1804,13 +1809,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1886,12 +1890,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1957,13 +1962,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2043,12 +2047,13 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 12:30</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2122,13 +2127,13 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>@ Store,
-Until 12:30</t>
+Until 12:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2202,22 +2207,9 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
@@ -2346,7 +2338,11 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2408,7 +2404,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2443,7 +2439,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2478,7 +2474,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
+          <t>5595 WHEELER RD</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2521,7 +2517,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5595 WHEELER RD</t>
+          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2564,7 +2560,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2605,11 +2601,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2647,9 +2639,21 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2688,19 +2692,15 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2735,12 +2735,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2786,12 +2786,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2841,12 +2841,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2904,12 +2904,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2966,16 +2966,8 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -3124,7 +3124,7 @@
       <c r="G50" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Gray Van</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>

--- a/02-01-26 to 02-07-26 Madison Schedule.xlsx
+++ b/02-01-26 to 02-07-26 Madison Schedule.xlsx
@@ -1655,8 +1655,7 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
-Trainer</t>
+Camry 3</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1890,13 +1889,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1962,12 +1960,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 12:30</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2047,13 +2046,13 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>@ Store,
-Until 12:30</t>
+Until 12:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2120,22 +2119,9 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2279,7 +2265,11 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
@@ -2340,7 +2330,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2404,7 +2394,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2439,7 +2429,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
+          <t>5595 WHEELER RD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2474,7 +2464,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5595 WHEELER RD</t>
+          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2517,7 +2507,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2558,11 +2548,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2600,9 +2586,21 @@
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2641,19 +2639,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2692,12 +2686,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2735,12 +2729,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2786,12 +2780,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2841,12 +2835,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2902,16 +2896,8 @@
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
